--- a/portal/admin-portal/src/main/resources/files/excel/招商平台项目信息登记表（模板）（试行）.xlsx
+++ b/portal/admin-portal/src/main/resources/files/excel/招商平台项目信息登记表（模板）（试行）.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\李波\Documents\WeChat Files\wxid_uvi6hjiyjyi122\FileStorage\File\2022-03\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F82095-EDDF-4E12-9D6C-40B0922FAFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24225" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="项目提交信息登记表" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>招商平台项目提交信息登记表</t>
   </si>
@@ -58,16 +52,10 @@
     <t>市场前景预测（必填）</t>
   </si>
   <si>
-    <t>项目规划占地面积（必填）</t>
-  </si>
-  <si>
-    <t>项目可建设用地面积（建设规模）（必填）</t>
-  </si>
-  <si>
-    <t>____㎡</t>
-  </si>
-  <si>
-    <t>____亩</t>
+    <t>项目规划占地面积（必填）/㎡</t>
+  </si>
+  <si>
+    <t>项目可建设用地面积（建设规模）（必填）/㎡</t>
   </si>
   <si>
     <t>项目招商内容</t>
@@ -89,6 +77,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>优惠政策及扶持条件（选填）</t>
     </r>
     <r>
@@ -153,8 +148,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,19 +219,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,13 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,8 +394,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -341,25 +667,297 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,105 +967,110 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,392 +1328,395 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="35.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="4" max="4" width="89.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="46" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="75" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" ht="26" customHeight="1" spans="1:4">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" ht="26" customHeight="1" spans="1:4">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:4">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="28.5" customHeight="1" spans="1:4">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:4">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" ht="28.5" customHeight="1" spans="1:4">
+      <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+    </row>
+    <row r="14" ht="31" customHeight="1" spans="1:4">
+      <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
     </row>
-    <row r="15" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
+    <row r="15" ht="31" customHeight="1" spans="1:4">
+      <c r="A15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" ht="28" customHeight="1" spans="1:4">
+      <c r="A16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" ht="30.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:4">
+      <c r="A17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" ht="25.5" customHeight="1" spans="1:4">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" ht="42" customHeight="1" spans="1:4">
+      <c r="A19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" ht="42" customHeight="1" spans="1:4">
+      <c r="A20" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" ht="51" customHeight="1" spans="1:4">
+      <c r="A21" s="24"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" ht="31.5" customHeight="1" spans="1:4">
+      <c r="A22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" ht="28" customHeight="1" spans="1:4">
+      <c r="A23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-    </row>
-    <row r="22" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-    </row>
-    <row r="23" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" ht="29" customHeight="1" spans="1:4">
+      <c r="A24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" ht="24" customHeight="1" spans="1:4">
+      <c r="A25" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" ht="33" customHeight="1" spans="1:4">
+      <c r="A26" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20"/>
     </row>
-    <row r="27" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21" t="s">
+    <row r="27" ht="22" customHeight="1" spans="1:4">
+      <c r="A27" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+    </row>
+    <row r="28" ht="27" customHeight="1" spans="1:4">
+      <c r="A28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:4">
+      <c r="A29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+    </row>
+    <row r="30" ht="25" customHeight="1" spans="1:4">
+      <c r="A30" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="1:4">
+      <c r="A31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:4">
+      <c r="A32" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-    </row>
-    <row r="32" spans="1:4" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" ht="32" customHeight="1" spans="1:4">
+      <c r="A33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-    </row>
-    <row r="33" spans="1:4" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="1:4">
+      <c r="A34" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-    </row>
-    <row r="34" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:4">
+      <c r="A35" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" ht="38" customHeight="1" spans="1:4">
+      <c r="A36" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" ht="24" customHeight="1" spans="1:4">
+      <c r="A37" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-    </row>
-    <row r="37" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-    </row>
-    <row r="38" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
+  <mergeCells count="37">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="8">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:D25">
+      <formula1>1</formula1>
+      <formula2>999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19:D19">
+      <formula1>1</formula1>
+      <formula2>999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:D12">
       <formula1>1</formula1>
       <formula2>9.99999999999999E+23</formula2>
     </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:D37 B30:D31" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>13</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:D32" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>16</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:D29 B38:D38" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>11</formula1>
-    </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D14" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13:D13">
       <formula1>1</formula1>
       <formula2>999999999999999</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:D20" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B28:D28 B37:D37">
+      <formula1>1</formula1>
+      <formula2>99999999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:D29 B30:D30 B36:D36">
+      <formula1>1</formula1>
+      <formula2>9999999999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:D18">
       <formula1>1</formula1>
       <formula2>9.99999999999999E+22</formula2>
+    </dataValidation>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31:D31">
+      <formula1>1</formula1>
+      <formula2>9999999999999990</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>